--- a/Webscraping with BeautifulSoup/Stock_Data.xlsx
+++ b/Webscraping with BeautifulSoup/Stock_Data.xlsx
@@ -389,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>Net Income</t>
+          <t>Net Profit</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>Total Fixed Assets</t>
+          <t>Fixed Assets</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4960,152 +4960,809 @@
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>Working Capital in Mio</t>
+          <t>Bruttoergebnis Marge in %</t>
         </is>
       </c>
       <c r="B67" s="5" t="inlineStr">
         <is>
-          <t>Working Capital in M</t>
+          <t>Gross Profit Marge in %</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>57101</v>
+        <v>37.82</v>
       </c>
       <c r="D67" t="n">
-        <v>14473</v>
+        <v>38.34</v>
       </c>
       <c r="E67" t="n">
-        <v>27831</v>
+        <v>38.47</v>
       </c>
       <c r="F67" t="n">
-        <v>27863</v>
+        <v>39.08</v>
       </c>
       <c r="G67" t="n">
-        <v>8768</v>
+        <v>40.06</v>
       </c>
       <c r="H67" t="n">
-        <v>5083</v>
+        <v>38.59</v>
       </c>
       <c r="I67" t="n">
-        <v>29628</v>
+        <v>37.62</v>
       </c>
       <c r="J67" t="n">
-        <v>19111</v>
+        <v>43.87</v>
       </c>
       <c r="K67" t="n">
-        <v>17018</v>
+        <v>40.48</v>
       </c>
       <c r="L67" t="n">
-        <v>20956</v>
+        <v>39.38</v>
       </c>
       <c r="M67" t="n">
-        <v>16983</v>
+        <v>35.96</v>
       </c>
       <c r="N67" t="n">
-        <v>20598</v>
+        <v>34.31</v>
       </c>
       <c r="O67" t="n">
-        <v>12657</v>
+        <v>33.97</v>
       </c>
       <c r="P67" t="n">
-        <v>8038</v>
+        <v>28.98</v>
       </c>
       <c r="Q67" t="n">
-        <v>6816</v>
+        <v>29.02</v>
       </c>
       <c r="R67" t="n">
-        <v>4375</v>
+        <v>27.29</v>
       </c>
       <c r="S67" t="n">
-        <v>3530</v>
+        <v>27.52</v>
       </c>
       <c r="T67" t="n">
-        <v>3730</v>
+        <v>27.92</v>
       </c>
       <c r="U67" t="n">
-        <v>3625</v>
+        <v>23.03</v>
       </c>
       <c r="V67" t="n">
-        <v>3494</v>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>27.13</v>
+      </c>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>Bruttoergebnis Marge in %</t>
+          <t>Kurzfristige Vermögensquote in %</t>
         </is>
       </c>
       <c r="B68" s="5" t="inlineStr">
         <is>
-          <t>Gross Profit Marge in %</t>
+          <t>Current Assets Ratio in %</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>37.82</v>
+        <v>48.1</v>
       </c>
       <c r="D68" t="n">
-        <v>38.34</v>
+        <v>35.91</v>
       </c>
       <c r="E68" t="n">
-        <v>38.47</v>
+        <v>34.28</v>
       </c>
       <c r="F68" t="n">
-        <v>39.08</v>
+        <v>33.22</v>
       </c>
       <c r="G68" t="n">
-        <v>40.06</v>
+        <v>30.77</v>
       </c>
       <c r="H68" t="n">
-        <v>38.59</v>
+        <v>29.56</v>
       </c>
       <c r="I68" t="n">
-        <v>37.62</v>
+        <v>35.4</v>
       </c>
       <c r="J68" t="n">
-        <v>43.87</v>
+        <v>32.75</v>
       </c>
       <c r="K68" t="n">
-        <v>40.48</v>
+        <v>38.66</v>
       </c>
       <c r="L68" t="n">
-        <v>39.38</v>
+        <v>55.44</v>
       </c>
       <c r="M68" t="n">
-        <v>35.96</v>
+        <v>67.34</v>
       </c>
       <c r="N68" t="n">
-        <v>34.31</v>
+        <v>87.66</v>
       </c>
       <c r="O68" t="n">
-        <v>33.97</v>
+        <v>86.62</v>
       </c>
       <c r="P68" t="n">
-        <v>28.98</v>
+        <v>84.33</v>
       </c>
       <c r="Q68" t="n">
-        <v>29.02</v>
+        <v>89.17</v>
       </c>
       <c r="R68" t="n">
-        <v>27.29</v>
+        <v>87.64</v>
       </c>
       <c r="S68" t="n">
-        <v>27.52</v>
+        <v>86.38</v>
       </c>
       <c r="T68" t="n">
-        <v>27.92</v>
+        <v>85.55</v>
       </c>
       <c r="U68" t="n">
-        <v>23.03</v>
+        <v>85.42</v>
       </c>
       <c r="V68" t="n">
-        <v>27.13</v>
+        <v>79.77</v>
       </c>
       <c r="W68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Nettogewinn Marge in %</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>Net Profit Marge in %</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="D69" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="E69" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="F69" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="G69" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="H69" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="I69" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="J69" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="K69" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="L69" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="M69" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="N69" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="O69" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="P69" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="V69" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="W69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>Operative Ergebnis Marge in %</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Marge in %</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="D70" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="E70" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="F70" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="G70" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="H70" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="I70" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="L70" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="M70" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="N70" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="O70" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="P70" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U70" t="n">
+        <v>-6.41</v>
+      </c>
+      <c r="V70" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="W70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Vermögensumsschlag in %</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>Asset Turnover in %</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>76.86</v>
+      </c>
+      <c r="D71" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="E71" t="n">
+        <v>61.08</v>
+      </c>
+      <c r="F71" t="n">
+        <v>67.03</v>
+      </c>
+      <c r="G71" t="n">
+        <v>80.45999999999999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="I71" t="n">
+        <v>82.56999999999999</v>
+      </c>
+      <c r="J71" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="K71" t="n">
+        <v>93.02</v>
+      </c>
+      <c r="L71" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="M71" t="n">
+        <v>67.84999999999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="O71" t="n">
+        <v>94.70999999999999</v>
+      </c>
+      <c r="P71" t="n">
+        <v>112.26</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>102.84</v>
+      </c>
+      <c r="S71" t="n">
+        <v>91.08</v>
+      </c>
+      <c r="T71" t="n">
+        <v>91.17</v>
+      </c>
+      <c r="U71" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="V71" t="n">
+        <v>117.35</v>
+      </c>
+      <c r="W71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>Langfristige Vermögensquote in %</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>Non-Current Assets Ratio in %</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="E72" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="F72" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="G72" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>70.44</v>
+      </c>
+      <c r="I72" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>67.25</v>
+      </c>
+      <c r="K72" t="n">
+        <v>61.34</v>
+      </c>
+      <c r="L72" t="n">
+        <v>44.56</v>
+      </c>
+      <c r="M72" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="N72" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="O72" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="P72" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="R72" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="S72" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="T72" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="U72" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="V72" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="W72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Gesamtkapitalrentabilität</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>ROA Return on Assets in %</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="D73" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="H73" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="J73" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K73" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="L73" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="M73" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="N73" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="O73" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="P73" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U73" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="V73" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="W73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Ertrag des eingesetzten Kapitals</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>ROCE Return on Cap. Empl. in %</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="D74" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="E74" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="F74" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="G74" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="H74" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30</v>
+      </c>
+      <c r="J74" t="n">
+        <v>40.17</v>
+      </c>
+      <c r="K74" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="L74" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="M74" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="N74" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="O74" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="P74" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U74" t="n">
+        <v>-7.64</v>
+      </c>
+      <c r="V74" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="W74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>Eigenkapital zu Anlagevermögen</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>Equity to Fixed Assets in %</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="E75" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="F75" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="G75" t="n">
+        <v>59.35</v>
+      </c>
+      <c r="H75" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="J75" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="K75" t="n">
+        <v>107.33</v>
+      </c>
+      <c r="L75" t="n">
+        <v>142.64</v>
+      </c>
+      <c r="M75" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="N75" t="n">
+        <v>430.77</v>
+      </c>
+      <c r="O75" t="n">
+        <v>428.55</v>
+      </c>
+      <c r="P75" t="n">
+        <v>370.33</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>596.8</v>
+      </c>
+      <c r="R75" t="n">
+        <v>510.15</v>
+      </c>
+      <c r="S75" t="n">
+        <v>455.06</v>
+      </c>
+      <c r="T75" t="n">
+        <v>450</v>
+      </c>
+      <c r="U75" t="n">
+        <v>446.47</v>
+      </c>
+      <c r="V75" t="n">
+        <v>298.47</v>
+      </c>
+      <c r="W75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>Liquidität Dritten Grades</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>Current Ratio in %</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>154.01</v>
+      </c>
+      <c r="D76" t="n">
+        <v>112.38</v>
+      </c>
+      <c r="E76" t="n">
+        <v>127.61</v>
+      </c>
+      <c r="F76" t="n">
+        <v>135.27</v>
+      </c>
+      <c r="G76" t="n">
+        <v>110.88</v>
+      </c>
+      <c r="H76" t="n">
+        <v>108.01</v>
+      </c>
+      <c r="I76" t="n">
+        <v>167.86</v>
+      </c>
+      <c r="J76" t="n">
+        <v>149.58</v>
+      </c>
+      <c r="K76" t="n">
+        <v>160.84</v>
+      </c>
+      <c r="L76" t="n">
+        <v>201.13</v>
+      </c>
+      <c r="M76" t="n">
+        <v>188.08</v>
+      </c>
+      <c r="N76" t="n">
+        <v>246.17</v>
+      </c>
+      <c r="O76" t="n">
+        <v>236.11</v>
+      </c>
+      <c r="P76" t="n">
+        <v>224.22</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>295.64</v>
+      </c>
+      <c r="R76" t="n">
+        <v>263.25</v>
+      </c>
+      <c r="S76" t="n">
+        <v>249.77</v>
+      </c>
+      <c r="T76" t="n">
+        <v>324.97</v>
+      </c>
+      <c r="U76" t="n">
+        <v>338.8</v>
+      </c>
+      <c r="V76" t="n">
+        <v>280.76</v>
+      </c>
+      <c r="W76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Working Capital in Mio</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>Working Capital in M</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>57101</v>
+      </c>
+      <c r="D77" t="n">
+        <v>14473</v>
+      </c>
+      <c r="E77" t="n">
+        <v>27831</v>
+      </c>
+      <c r="F77" t="n">
+        <v>27863</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8768</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5083</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29628</v>
+      </c>
+      <c r="J77" t="n">
+        <v>19111</v>
+      </c>
+      <c r="K77" t="n">
+        <v>17018</v>
+      </c>
+      <c r="L77" t="n">
+        <v>20956</v>
+      </c>
+      <c r="M77" t="n">
+        <v>16983</v>
+      </c>
+      <c r="N77" t="n">
+        <v>20598</v>
+      </c>
+      <c r="O77" t="n">
+        <v>12657</v>
+      </c>
+      <c r="P77" t="n">
+        <v>8038</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>6816</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4375</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3530</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3730</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3625</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3494</v>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Webscraping with BeautifulSoup/Stock_Data.xlsx
+++ b/Webscraping with BeautifulSoup/Stock_Data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -412,17 +412,17 @@
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="15"/>
     <col customWidth="1" max="11" min="11" width="15"/>
-    <col customWidth="1" max="12" min="12" width="11"/>
+    <col customWidth="1" max="12" min="12" width="19"/>
     <col customWidth="1" max="13" min="13" width="11"/>
     <col customWidth="1" max="14" min="14" width="11"/>
     <col customWidth="1" max="15" min="15" width="11"/>
     <col customWidth="1" max="16" min="16" width="11"/>
     <col customWidth="1" max="17" min="17" width="10"/>
     <col customWidth="1" max="18" min="18" width="10"/>
-    <col customWidth="1" max="19" min="19" width="10"/>
-    <col customWidth="1" max="20" min="20" width="10"/>
-    <col customWidth="1" max="21" min="21" width="10"/>
-    <col customWidth="1" max="22" min="22" width="10"/>
+    <col customWidth="1" max="19" min="19" width="11"/>
+    <col customWidth="1" max="20" min="20" width="11"/>
+    <col customWidth="1" max="21" min="21" width="11"/>
+    <col customWidth="1" max="22" min="22" width="19"/>
     <col customWidth="1" max="23" min="23" width="10"/>
   </cols>
   <sheetData>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B56" s="5" t="inlineStr">
         <is>
-          <t>PC (prce/cashflow)</t>
+          <t>PC (price/cashflow)</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5413,75 +5413,465 @@
     <row r="77">
       <c r="A77" s="5" t="inlineStr">
         <is>
+          <t>Operativer Cashflow</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>Operating Cashflow in M</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>63712.62</v>
+      </c>
+      <c r="D77" t="n">
+        <v>65904.3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>63664.92</v>
+      </c>
+      <c r="F77" t="n">
+        <v>48877.76</v>
+      </c>
+      <c r="G77" t="n">
+        <v>42233.03</v>
+      </c>
+      <c r="H77" t="n">
+        <v>58073.4</v>
+      </c>
+      <c r="I77" t="n">
+        <v>50289.06</v>
+      </c>
+      <c r="J77" t="n">
+        <v>80991.68000000001</v>
+      </c>
+      <c r="K77" t="n">
+        <v>61407.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>89639.76000000001</v>
+      </c>
+      <c r="M77" t="n">
+        <v>102468.14</v>
+      </c>
+      <c r="N77" t="n">
+        <v>65413.36</v>
+      </c>
+      <c r="O77" t="n">
+        <v>149413.82</v>
+      </c>
+      <c r="P77" t="n">
+        <v>177634.29</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>103222.7</v>
+      </c>
+      <c r="R77" t="n">
+        <v>89050</v>
+      </c>
+      <c r="S77" t="n">
+        <v>134972.86</v>
+      </c>
+      <c r="T77" t="n">
+        <v>295176.98</v>
+      </c>
+      <c r="U77" t="n">
+        <v>144835.24</v>
+      </c>
+      <c r="V77" t="n">
+        <v>46812.00000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>Aktienrückkauf</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>Share Buyback in M</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>312</v>
+      </c>
+      <c r="D78" t="n">
+        <v>371</v>
+      </c>
+      <c r="E78" t="n">
+        <v>210</v>
+      </c>
+      <c r="F78" t="n">
+        <v>243</v>
+      </c>
+      <c r="G78" t="n">
+        <v>287</v>
+      </c>
+      <c r="H78" t="n">
+        <v>428</v>
+      </c>
+      <c r="I78" t="n">
+        <v>280</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-69</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-93</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-141</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-53</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-112</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-119</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-142</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-365</v>
+      </c>
+      <c r="R78" t="n">
+        <v>-346</v>
+      </c>
+      <c r="S78" t="n">
+        <v>-108</v>
+      </c>
+      <c r="T78" t="n">
+        <v>-113</v>
+      </c>
+      <c r="U78" t="n">
+        <v>-213</v>
+      </c>
+      <c r="V78" t="n">
+        <v>-198</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Umsatzwachstum 3J in %</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>Revenue Growth 3Y in %</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="G79" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="H79" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="I79" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="J79" t="n">
+        <v>63.02</v>
+      </c>
+      <c r="K79" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="L79" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="N79" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="O79" t="n">
+        <v>43.74</v>
+      </c>
+      <c r="P79" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="R79" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="S79" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>Umsatzwachstum 5J in %</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>Revenue Growth 5Y in %</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="G80" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="H80" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="I80" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="K80" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="L80" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="M80" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="N80" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="O80" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="P80" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="R80" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Umsatzwachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>Revenue Growth 10Y in %</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="D81" t="n">
+        <v>26</v>
+      </c>
+      <c r="E81" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="F81" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="G81" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="H81" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="I81" t="n">
+        <v>41.06</v>
+      </c>
+      <c r="J81" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="K81" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="M81" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
           <t>Working Capital in Mio</t>
         </is>
       </c>
-      <c r="B77" s="5" t="inlineStr">
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>Working Capital in M</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C82" t="n">
         <v>57101</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D82" t="n">
         <v>14473</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E82" t="n">
         <v>27831</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F82" t="n">
         <v>27863</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G82" t="n">
         <v>8768</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H82" t="n">
         <v>5083</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I82" t="n">
         <v>29628</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J82" t="n">
         <v>19111</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K82" t="n">
         <v>17018</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L82" t="n">
         <v>20956</v>
       </c>
-      <c r="M77" t="n">
+      <c r="M82" t="n">
         <v>16983</v>
       </c>
-      <c r="N77" t="n">
+      <c r="N82" t="n">
         <v>20598</v>
       </c>
-      <c r="O77" t="n">
+      <c r="O82" t="n">
         <v>12657</v>
       </c>
-      <c r="P77" t="n">
+      <c r="P82" t="n">
         <v>8038</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q82" t="n">
         <v>6816</v>
       </c>
-      <c r="R77" t="n">
+      <c r="R82" t="n">
         <v>4375</v>
       </c>
-      <c r="S77" t="n">
+      <c r="S82" t="n">
         <v>3530</v>
       </c>
-      <c r="T77" t="n">
+      <c r="T82" t="n">
         <v>3730</v>
       </c>
-      <c r="U77" t="n">
+      <c r="U82" t="n">
         <v>3625</v>
       </c>
-      <c r="V77" t="n">
+      <c r="V82" t="n">
         <v>3494</v>
       </c>
-      <c r="W77" t="inlineStr">
+      <c r="W82" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5498,7 +5888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -5521,16 +5911,16 @@
     <col customWidth="1" max="10" min="10" width="15"/>
     <col customWidth="1" max="11" min="11" width="15"/>
     <col customWidth="1" max="12" min="12" width="10"/>
-    <col customWidth="1" max="13" min="13" width="10"/>
+    <col customWidth="1" max="13" min="13" width="11"/>
     <col customWidth="1" max="14" min="14" width="10"/>
     <col customWidth="1" max="15" min="15" width="10"/>
-    <col customWidth="1" max="16" min="16" width="10"/>
-    <col customWidth="1" max="17" min="17" width="10"/>
-    <col customWidth="1" max="18" min="18" width="10"/>
+    <col customWidth="1" max="16" min="16" width="19"/>
+    <col customWidth="1" max="17" min="17" width="22"/>
+    <col customWidth="1" max="18" min="18" width="21"/>
     <col customWidth="1" max="19" min="19" width="10"/>
-    <col customWidth="1" max="20" min="20" width="10"/>
+    <col customWidth="1" max="20" min="20" width="21"/>
     <col customWidth="1" max="21" min="21" width="10"/>
-    <col customWidth="1" max="22" min="22" width="10"/>
+    <col customWidth="1" max="22" min="22" width="20"/>
     <col customWidth="1" max="23" min="23" width="10"/>
   </cols>
   <sheetData>
@@ -9294,7 +9684,7 @@
       </c>
       <c r="B57" s="5" t="inlineStr">
         <is>
-          <t>PC (prce/cashflow)</t>
+          <t>PC (price/cashflow)</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -10894,75 +11284,472 @@
     <row r="78">
       <c r="A78" s="5" t="inlineStr">
         <is>
+          <t>Operativer Cashflow</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>Operating Cashflow in M</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>16137.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>16065.81</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15938.08</v>
+      </c>
+      <c r="F78" t="n">
+        <v>15819.3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>15754.83</v>
+      </c>
+      <c r="H78" t="n">
+        <v>9937.68</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14366.49</v>
+      </c>
+      <c r="J78" t="n">
+        <v>9018</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5271.95</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6337.21</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-40708.15</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-17737.5</v>
+      </c>
+      <c r="O78" t="n">
+        <v>5632.5</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5370.639999999999</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4405.719999999999</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2474.556</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7972.048</v>
+      </c>
+      <c r="T78" t="n">
+        <v>12296.848</v>
+      </c>
+      <c r="U78" t="n">
+        <v>30665.25</v>
+      </c>
+      <c r="V78" t="n">
+        <v>10327.005</v>
+      </c>
+      <c r="W78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Aktienrückkauf</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>Share Buyback in M</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>-114</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-47</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>7</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-337</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="R79" t="n">
+        <v>-26.80000000000007</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>-27.79999999999995</v>
+      </c>
+      <c r="U79" t="n">
+        <v>-67.5</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>Umsatzwachstum 3J in %</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>Revenue Growth 3Y in %</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="E80" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="F80" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="G80" t="n">
+        <v>15</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="J80" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-21.62</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-25.61</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-9.85</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="P80" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="R80" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="T80" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Umsatzwachstum 5J in %</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>Revenue Growth 5Y in %</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="D81" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E81" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="G81" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-9.17</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-9.33</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-13.11</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-3.73</v>
+      </c>
+      <c r="O81" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P81" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="R81" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>Umsatzwachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>Revenue Growth 10Y in %</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
           <t>Working Capital in Mio</t>
         </is>
       </c>
-      <c r="B78" s="5" t="inlineStr">
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>Working Capital in M</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C83" t="n">
         <v>5280</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D83" t="n">
         <v>3241</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E83" t="n">
         <v>2773</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F83" t="n">
         <v>2962</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G83" t="n">
         <v>2530</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H83" t="n">
         <v>2331</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I83" t="n">
         <v>2029</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J83" t="n">
         <v>1832</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K83" t="n">
         <v>1966</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L83" t="n">
         <v>1782</v>
       </c>
-      <c r="M78" t="n">
+      <c r="M83" t="n">
         <v>1086</v>
       </c>
-      <c r="N78" t="n">
+      <c r="N83" t="n">
         <v>1130</v>
       </c>
-      <c r="O78" t="n">
+      <c r="O83" t="n">
         <v>2431</v>
       </c>
-      <c r="P78" t="n">
+      <c r="P83" t="n">
         <v>2376</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q83" t="n">
         <v>2192</v>
       </c>
-      <c r="R78" t="n">
+      <c r="R83" t="n">
         <v>2422</v>
       </c>
-      <c r="S78" t="n">
+      <c r="S83" t="n">
         <v>3172</v>
       </c>
-      <c r="T78" t="n">
+      <c r="T83" t="n">
         <v>1808</v>
       </c>
-      <c r="U78" t="n">
+      <c r="U83" t="n">
         <v>672.6</v>
       </c>
-      <c r="V78" t="n">
+      <c r="V83" t="n">
         <v>1381</v>
       </c>
-      <c r="W78" t="n">
+      <c r="W83" t="n">
         <v>473.4</v>
       </c>
     </row>

--- a/Webscraping with BeautifulSoup/Stock_Data.xlsx
+++ b/Webscraping with BeautifulSoup/Stock_Data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -5557,147 +5557,139 @@
     <row r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>Umsatzwachstum 3J in %</t>
+          <t>Umsatzwachstum 1J in %</t>
         </is>
       </c>
       <c r="B79" s="5" t="inlineStr">
         <is>
-          <t>Revenue Growth 3Y in %</t>
+          <t>Revenue Growth 1Y in %</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.71</v>
+        <v>-2.04</v>
       </c>
       <c r="D79" t="n">
-        <v>4.81</v>
+        <v>15.86</v>
       </c>
       <c r="E79" t="n">
-        <v>8.81</v>
+        <v>6.3</v>
       </c>
       <c r="F79" t="n">
-        <v>9.029999999999999</v>
+        <v>-7.73</v>
       </c>
       <c r="G79" t="n">
-        <v>14.67</v>
+        <v>27.86</v>
       </c>
       <c r="H79" t="n">
-        <v>20.24</v>
+        <v>6.95</v>
       </c>
       <c r="I79" t="n">
-        <v>39.91</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J79" t="n">
-        <v>63.02</v>
+        <v>44.58</v>
       </c>
       <c r="K79" t="n">
-        <v>52.32</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="L79" t="n">
-        <v>42.1</v>
+        <v>78.52</v>
       </c>
       <c r="M79" t="n">
-        <v>24.03</v>
+        <v>12.49</v>
       </c>
       <c r="N79" t="n">
-        <v>32.75</v>
+        <v>35.3</v>
       </c>
       <c r="O79" t="n">
-        <v>43.74</v>
+        <v>24.29</v>
       </c>
       <c r="P79" t="n">
-        <v>46.77</v>
+        <v>38.65</v>
       </c>
       <c r="Q79" t="n">
-        <v>36.58</v>
+        <v>68.27</v>
       </c>
       <c r="R79" t="n">
-        <v>16.18</v>
+        <v>33.38</v>
       </c>
       <c r="S79" t="n">
-        <v>-5.88</v>
+        <v>8.1</v>
       </c>
       <c r="T79" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>7.07</v>
+      </c>
+      <c r="U79" t="n">
+        <v>-32.82</v>
+      </c>
+      <c r="V79" t="n">
+        <v>30.14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>Umsatzwachstum 5J in %</t>
+          <t>Umsatzwachstum 3J in %</t>
         </is>
       </c>
       <c r="B80" s="5" t="inlineStr">
         <is>
-          <t>Revenue Growth 5Y in %</t>
+          <t>Revenue Growth 3Y in %</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8.050000000000001</v>
+        <v>6.71</v>
       </c>
       <c r="D80" t="n">
-        <v>9.85</v>
+        <v>4.81</v>
       </c>
       <c r="E80" t="n">
-        <v>8.52</v>
+        <v>8.81</v>
       </c>
       <c r="F80" t="n">
-        <v>16.17</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>30.91</v>
+        <v>14.67</v>
       </c>
       <c r="H80" t="n">
-        <v>41.04</v>
+        <v>20.24</v>
       </c>
       <c r="I80" t="n">
-        <v>42.15</v>
+        <v>39.91</v>
       </c>
       <c r="J80" t="n">
-        <v>47.37</v>
+        <v>63.02</v>
       </c>
       <c r="K80" t="n">
-        <v>43.31</v>
+        <v>52.32</v>
       </c>
       <c r="L80" t="n">
-        <v>37.85</v>
+        <v>42.1</v>
       </c>
       <c r="M80" t="n">
-        <v>35.8</v>
+        <v>24.03</v>
       </c>
       <c r="N80" t="n">
-        <v>39.98</v>
+        <v>32.75</v>
       </c>
       <c r="O80" t="n">
-        <v>34.54</v>
+        <v>43.74</v>
       </c>
       <c r="P80" t="n">
-        <v>31.09</v>
+        <v>46.77</v>
       </c>
       <c r="Q80" t="n">
-        <v>16.8</v>
+        <v>36.58</v>
       </c>
       <c r="R80" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>16.18</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.46</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -5713,71 +5705,61 @@
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>Umsatzwachstum 10J in %</t>
+          <t>Umsatzwachstum 5J in %</t>
         </is>
       </c>
       <c r="B81" s="5" t="inlineStr">
         <is>
-          <t>Revenue Growth 10Y in %</t>
+          <t>Revenue Growth 5Y in %</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>24.55</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>26</v>
+        <v>9.85</v>
       </c>
       <c r="E81" t="n">
-        <v>27.94</v>
+        <v>8.52</v>
       </c>
       <c r="F81" t="n">
-        <v>29.74</v>
+        <v>16.17</v>
       </c>
       <c r="G81" t="n">
-        <v>34.38</v>
+        <v>30.91</v>
       </c>
       <c r="H81" t="n">
-        <v>38.42</v>
+        <v>41.04</v>
       </c>
       <c r="I81" t="n">
-        <v>41.06</v>
+        <v>42.15</v>
       </c>
       <c r="J81" t="n">
-        <v>40.95</v>
+        <v>47.37</v>
       </c>
       <c r="K81" t="n">
-        <v>37.2</v>
+        <v>43.31</v>
       </c>
       <c r="L81" t="n">
-        <v>27.32</v>
+        <v>37.85</v>
       </c>
       <c r="M81" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>35.8</v>
+      </c>
+      <c r="N81" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="O81" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="P81" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="R81" t="n">
+        <v>9.17</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -5803,75 +5785,165 @@
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
+          <t>Umsatzwachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>Revenue Growth 10Y in %</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="D82" t="n">
+        <v>26</v>
+      </c>
+      <c r="E82" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="F82" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="G82" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="H82" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="I82" t="n">
+        <v>41.06</v>
+      </c>
+      <c r="J82" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="K82" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="M82" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
           <t>Working Capital in Mio</t>
         </is>
       </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>Working Capital in M</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C83" t="n">
         <v>57101</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D83" t="n">
         <v>14473</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E83" t="n">
         <v>27831</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F83" t="n">
         <v>27863</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G83" t="n">
         <v>8768</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H83" t="n">
         <v>5083</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I83" t="n">
         <v>29628</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J83" t="n">
         <v>19111</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K83" t="n">
         <v>17018</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L83" t="n">
         <v>20956</v>
       </c>
-      <c r="M82" t="n">
+      <c r="M83" t="n">
         <v>16983</v>
       </c>
-      <c r="N82" t="n">
+      <c r="N83" t="n">
         <v>20598</v>
       </c>
-      <c r="O82" t="n">
+      <c r="O83" t="n">
         <v>12657</v>
       </c>
-      <c r="P82" t="n">
+      <c r="P83" t="n">
         <v>8038</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q83" t="n">
         <v>6816</v>
       </c>
-      <c r="R82" t="n">
+      <c r="R83" t="n">
         <v>4375</v>
       </c>
-      <c r="S82" t="n">
+      <c r="S83" t="n">
         <v>3530</v>
       </c>
-      <c r="T82" t="n">
+      <c r="T83" t="n">
         <v>3730</v>
       </c>
-      <c r="U82" t="n">
+      <c r="U83" t="n">
         <v>3625</v>
       </c>
-      <c r="V82" t="n">
+      <c r="V83" t="n">
         <v>3494</v>
       </c>
-      <c r="W82" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5888,7 +5960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -6276,7 +6348,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05.05.2020</t>
+          <t>11.05.2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -11432,148 +11504,140 @@
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>Umsatzwachstum 3J in %</t>
+          <t>Umsatzwachstum 1J in %</t>
         </is>
       </c>
       <c r="B80" s="5" t="inlineStr">
         <is>
-          <t>Revenue Growth 3Y in %</t>
+          <t>Revenue Growth 1Y in %</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.45</v>
+        <v>5.66</v>
       </c>
       <c r="D80" t="n">
-        <v>9.470000000000001</v>
+        <v>7.59</v>
       </c>
       <c r="E80" t="n">
-        <v>18.32</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>19.42</v>
+        <v>11.7</v>
       </c>
       <c r="G80" t="n">
-        <v>15</v>
+        <v>34.14</v>
       </c>
       <c r="H80" t="n">
-        <v>2.84</v>
+        <v>12.41</v>
       </c>
       <c r="I80" t="n">
-        <v>5.81</v>
+        <v>-1.56</v>
       </c>
       <c r="J80" t="n">
-        <v>9.279999999999999</v>
+        <v>-2.33</v>
       </c>
       <c r="K80" t="n">
-        <v>0.07000000000000001</v>
+        <v>21.31</v>
       </c>
       <c r="L80" t="n">
-        <v>-21.62</v>
+        <v>8.85</v>
       </c>
       <c r="M80" t="n">
-        <v>-25.61</v>
+        <v>-29.95</v>
       </c>
       <c r="N80" t="n">
-        <v>-9.85</v>
+        <v>-43.75</v>
       </c>
       <c r="O80" t="n">
-        <v>2.71</v>
+        <v>-3.12</v>
       </c>
       <c r="P80" t="n">
-        <v>9.4</v>
+        <v>17.31</v>
       </c>
       <c r="Q80" t="n">
-        <v>9.68</v>
+        <v>-6.06</v>
       </c>
       <c r="R80" t="n">
-        <v>8.970000000000001</v>
+        <v>16.95</v>
       </c>
       <c r="S80" t="n">
-        <v>-4.05</v>
+        <v>18.15</v>
       </c>
       <c r="T80" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-8.18</v>
+      </c>
+      <c r="U80" t="n">
+        <v>-22.13</v>
+      </c>
+      <c r="V80" t="n">
+        <v>71.89</v>
       </c>
       <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>Umsatzwachstum 5J in %</t>
+          <t>Umsatzwachstum 3J in %</t>
         </is>
       </c>
       <c r="B81" s="5" t="inlineStr">
         <is>
-          <t>Revenue Growth 5Y in %</t>
+          <t>Revenue Growth 3Y in %</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>13.64</v>
+        <v>7.45</v>
       </c>
       <c r="D81" t="n">
-        <v>14.99</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>13.16</v>
+        <v>18.32</v>
       </c>
       <c r="F81" t="n">
-        <v>10.87</v>
+        <v>19.42</v>
       </c>
       <c r="G81" t="n">
-        <v>12.79</v>
+        <v>15</v>
       </c>
       <c r="H81" t="n">
-        <v>7.74</v>
+        <v>2.84</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.74</v>
+        <v>5.81</v>
       </c>
       <c r="J81" t="n">
-        <v>-9.17</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L81" t="n">
-        <v>-10.13</v>
+        <v>-21.62</v>
       </c>
       <c r="M81" t="n">
-        <v>-13.11</v>
+        <v>-25.61</v>
       </c>
       <c r="N81" t="n">
-        <v>-3.73</v>
+        <v>-9.85</v>
       </c>
       <c r="O81" t="n">
-        <v>8.65</v>
+        <v>2.71</v>
       </c>
       <c r="P81" t="n">
-        <v>7.63</v>
+        <v>9.4</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.25</v>
+        <v>9.68</v>
       </c>
       <c r="R81" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S81" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="T81" t="n">
+        <v>13.86</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -11590,71 +11654,61 @@
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>Umsatzwachstum 10J in %</t>
+          <t>Umsatzwachstum 5J in %</t>
         </is>
       </c>
       <c r="B82" s="5" t="inlineStr">
         <is>
-          <t>Revenue Growth 10Y in %</t>
+          <t>Revenue Growth 5Y in %</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>10.69</v>
+        <v>13.64</v>
       </c>
       <c r="D82" t="n">
-        <v>7.13</v>
+        <v>14.99</v>
       </c>
       <c r="E82" t="n">
-        <v>1.99</v>
+        <v>13.16</v>
       </c>
       <c r="F82" t="n">
-        <v>0.77</v>
+        <v>10.87</v>
       </c>
       <c r="G82" t="n">
-        <v>1.33</v>
+        <v>12.79</v>
       </c>
       <c r="H82" t="n">
-        <v>-2.69</v>
+        <v>7.74</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.24</v>
+        <v>-0.74</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.26</v>
+        <v>-9.17</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.85</v>
+        <v>-9.33</v>
       </c>
       <c r="L82" t="n">
-        <v>-5.19</v>
+        <v>-10.13</v>
       </c>
       <c r="M82" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-13.11</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-3.73</v>
+      </c>
+      <c r="O82" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="R82" t="n">
+        <v>15.34</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -11681,75 +11735,166 @@
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
+          <t>Umsatzwachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>Revenue Growth 10Y in %</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
           <t>Working Capital in Mio</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>Working Capital in M</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C84" t="n">
         <v>5280</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D84" t="n">
         <v>3241</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E84" t="n">
         <v>2773</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F84" t="n">
         <v>2962</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G84" t="n">
         <v>2530</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H84" t="n">
         <v>2331</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I84" t="n">
         <v>2029</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J84" t="n">
         <v>1832</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K84" t="n">
         <v>1966</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L84" t="n">
         <v>1782</v>
       </c>
-      <c r="M83" t="n">
+      <c r="M84" t="n">
         <v>1086</v>
       </c>
-      <c r="N83" t="n">
+      <c r="N84" t="n">
         <v>1130</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O84" t="n">
         <v>2431</v>
       </c>
-      <c r="P83" t="n">
+      <c r="P84" t="n">
         <v>2376</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q84" t="n">
         <v>2192</v>
       </c>
-      <c r="R83" t="n">
+      <c r="R84" t="n">
         <v>2422</v>
       </c>
-      <c r="S83" t="n">
+      <c r="S84" t="n">
         <v>3172</v>
       </c>
-      <c r="T83" t="n">
+      <c r="T84" t="n">
         <v>1808</v>
       </c>
-      <c r="U83" t="n">
+      <c r="U84" t="n">
         <v>672.6</v>
       </c>
-      <c r="V83" t="n">
+      <c r="V84" t="n">
         <v>1381</v>
       </c>
-      <c r="W83" t="n">
+      <c r="W84" t="n">
         <v>473.4</v>
       </c>
     </row>

--- a/Webscraping with BeautifulSoup/Stock_Data.xlsx
+++ b/Webscraping with BeautifulSoup/Stock_Data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -417,8 +417,8 @@
     <col customWidth="1" max="14" min="14" width="11"/>
     <col customWidth="1" max="15" min="15" width="11"/>
     <col customWidth="1" max="16" min="16" width="11"/>
-    <col customWidth="1" max="17" min="17" width="10"/>
-    <col customWidth="1" max="18" min="18" width="10"/>
+    <col customWidth="1" max="17" min="17" width="11"/>
+    <col customWidth="1" max="18" min="18" width="11"/>
     <col customWidth="1" max="19" min="19" width="11"/>
     <col customWidth="1" max="20" min="20" width="11"/>
     <col customWidth="1" max="21" min="21" width="11"/>
@@ -498,14 +498,16 @@
       <c r="D3" s="5" t="inlineStr"/>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>TERMINE 2020</t>
-        </is>
-      </c>
+          <t>TERMINE / EVENTS 2020</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr"/>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>AKTIONÄRE</t>
-        </is>
-      </c>
+          <t>AKTIONÄRE / SHAREHOLDERS</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -536,7 +538,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ergebnis 1.Quartal</t>
+          <t>Result Q1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -579,7 +581,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dividendenauszahlung</t>
+          <t>Dividend Payout</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -622,7 +624,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hauptversammlung</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -665,7 +667,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ergebnis Halbjahr</t>
+          <t>Score Half Year</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -733,7 +735,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Computer-Hardware</t>
+          <t>Computer Hardware</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr"/>
@@ -742,84 +744,84 @@
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Aktientyp / Share Type</t>
+          <t>Sektor / Sector</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Auslandsaktie</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Sektor / Sector</t>
+          <t>Typ / Genre</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Technologie</t>
+          <t>Stammaktie</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Typ / Genre</t>
+          <t>Adresse / Address</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Stammaktie</t>
+          <t>Apple Inc.One Apple Park Way  Cupertino, California 95014, USA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Adresse</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple Inc.One Apple Park Way  Cupertino, California 95014, USA</t>
+          <t>Tim Cook, Katherine Adams, Eddy Cue, Craig Federighi, John Giannandrea, Sabih Khan, Luca Maestri, Deirdre O’Brien, Dan Riccio, Philip W. Schiller, Johny Srouji, Jeff Williams, Lisa Jackson, Isabel Ge Mahe, Tor Myhren, Adrian Perica</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Aufsichtsrat / Board</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tim Cook, Katherine Adams, Eddy Cue, Craig Federighi, John Giannandrea, Sabih Khan, Luca Maestri, Deirdre O’Brien, Dan Riccio, Philip W. Schiller, Johny Srouji, Jeff Williams, Lisa Jackson, Isabel Ge Mahe, Tor Myhren, Adrian Perica</t>
+          <t>Dr. Arthur D. Levinson, James Bell, Tim Cook, Albert Gore Jr., Andrea Jung, Dr. Ronald D. Sugar, Susan L. Wagner</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Aufsichtsrat</t>
+          <t>Beschreibung</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dr. Arthur D. Levinson, James Bell, Tim Cook, Albert Gore Jr., Andrea Jung, Dr. Ronald D. Sugar, Susan L. Wagner</t>
+          <t>Apple Inc. ist ein global führender Technologiekonzern. Das Unternehmen entwickelt, produziert und verkauft in sich geschlossene End-to-End-Elektronikprodukte wie Mobilgeräte, Computer und tragbare Musikplayer. Außerdem vertreibt Apple die dazugehörige Software, Peripheriegeräte, Netzwerkprodukte sowie digitale Inhalte und Apps. Zu den bekanntesten Hardwareprodukten des Unternehmens gehören das Smartphone iPhone, die Tabletprodukte der Reihe iPad, die Desktopcomputer und Notebooks aus der Reihe Mac, die tragbaren Musikplayer iPod in verschiedenen Ausführungen, die Apple Watch sowie der Fernsehdienst Apple TV. Digitale Inhalte und Apps können über die unternehmenseigenen Dienste iTunes Store, App Store, iBookstore und Mac App Store erworben werden. Seit Juni 2015 ist die Apple Music™ App auf dem Markt, eine Kombination aus Musik Streaming Dienst, weltweitem Liveradiosender und Kontaktmöglichkeit zu den Künstlern. Apple-Produkte werden in Apple Stores sowie über den Online-Store des Unternehmens und über Drittanbieter verkauft. Copyright 2014 FINANCE BASE AG</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Profil</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Apple Inc. ist ein global führender Technologiekonzern. Das Unternehmen entwickelt, produziert und verkauft in sich geschlossene End-to-End-Elektronikprodukte wie Mobilgeräte, Computer und tragbare Musikplayer. Außerdem vertreibt Apple die dazugehörige Software, Peripheriegeräte, Netzwerkprodukte sowie digitale Inhalte und Apps. Zu den bekanntesten Hardwareprodukten des Unternehmens gehören das Smartphone iPhone, die Tabletprodukte der Reihe iPad, die Desktopcomputer und Notebooks aus der Reihe Mac, die tragbaren Musikplayer iPod in verschiedenen Ausführungen, die Apple Watch sowie der Fernsehdienst Apple TV. Digitale Inhalte und Apps können über die unternehmenseigenen Dienste iTunes Store, App Store, iBookstore und Mac App Store erworben werden. Seit Juni 2015 ist die Apple Music™ App auf dem Markt, eine Kombination aus Musik Streaming Dienst, weltweitem Liveradiosender und Kontaktmöglichkeit zu den Künstlern. Apple-Produkte werden in Apple Stores sowie über den Online-Store des Unternehmens und über Drittanbieter verkauft. Copyright 2014 FINANCE BASE AG</t>
+          <t>Apple Inc. is a global technology leader. The company develops, produces and sells self-contained end-to-end electronic products such as mobile devices, computers and portable music players. Apple also sells related software, peripherals, networking products and digital content and apps. Among the best known hardware products include the smartphone iPhone, the tablet products in the iPad, the desktop computer and notebooks from the series Mac, the iPod portable music player in different versions, the Apple Watch and the television service Apple TV. Digital content and apps on the company's own services iTunes Store, App Store, iBookstore, and Mac App Store be purchased. Since June 2015, the Apple Music ™ app on the market, a combination of music streaming service worldwide live radio stations and opportunity to contact the artists. Apple products are sold in Apple stores and on the online store of the company and third parties. Copyright 2014 FINANCE BASE AG</t>
         </is>
       </c>
     </row>
@@ -5875,75 +5877,1109 @@
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
+          <t>Gewinnwachstum 1J in %</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>Earnings Growth 1Y in %</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="D83" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-14.43</v>
+      </c>
+      <c r="G83" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="H83" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="J83" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="K83" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="L83" t="n">
+        <v>145.67</v>
+      </c>
+      <c r="M83" t="n">
+        <v>18</v>
+      </c>
+      <c r="N83" t="n">
+        <v>38.27</v>
+      </c>
+      <c r="O83" t="n">
+        <v>75.77</v>
+      </c>
+      <c r="P83" t="n">
+        <v>48.99</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>383.7</v>
+      </c>
+      <c r="R83" t="n">
+        <v>300</v>
+      </c>
+      <c r="S83" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="T83" t="n">
+        <v>-360</v>
+      </c>
+      <c r="U83" t="n">
+        <v>-103.18</v>
+      </c>
+      <c r="V83" t="n">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum 3J in %</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>Earnings Growth 3Y in %</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="H84" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="I84" t="n">
+        <v>44.91</v>
+      </c>
+      <c r="J84" t="n">
+        <v>97.22</v>
+      </c>
+      <c r="K84" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="L84" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="M84" t="n">
+        <v>44.01</v>
+      </c>
+      <c r="N84" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="O84" t="n">
+        <v>169.49</v>
+      </c>
+      <c r="P84" t="n">
+        <v>244.23</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-17.95</v>
+      </c>
+      <c r="S84" t="n">
+        <v>-152.34</v>
+      </c>
+      <c r="T84" t="n">
+        <v>-144.13</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum 5J in %</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>Earnings Growth 5Y in %</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F85" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="G85" t="n">
+        <v>35.31</v>
+      </c>
+      <c r="H85" t="n">
+        <v>57.42</v>
+      </c>
+      <c r="I85" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="J85" t="n">
+        <v>69.58</v>
+      </c>
+      <c r="K85" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="L85" t="n">
+        <v>65.34</v>
+      </c>
+      <c r="M85" t="n">
+        <v>112.95</v>
+      </c>
+      <c r="N85" t="n">
+        <v>169.35</v>
+      </c>
+      <c r="O85" t="n">
+        <v>162.92</v>
+      </c>
+      <c r="P85" t="n">
+        <v>75.77</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>45.33</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-25.25</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>Earnings Growth 10Y in %</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="D86" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="E86" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="F86" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="G86" t="n">
+        <v>50.33</v>
+      </c>
+      <c r="H86" t="n">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="I86" t="n">
+        <v>114.51</v>
+      </c>
+      <c r="J86" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="K86" t="n">
+        <v>74.15000000000001</v>
+      </c>
+      <c r="L86" t="n">
+        <v>55.34</v>
+      </c>
+      <c r="M86" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>PEG Ratio</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>KGW Kurs/Gewinn/Wachstum</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R87" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>EBIT-Wachstum 1J in %</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Growth 1Y in %</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>-9.83</v>
+      </c>
+      <c r="D88" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-15.73</v>
+      </c>
+      <c r="G88" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="K88" t="n">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="L88" t="n">
+        <v>140.08</v>
+      </c>
+      <c r="M88" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="N88" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="O88" t="n">
+        <v>79.73999999999999</v>
+      </c>
+      <c r="P88" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>406.13</v>
+      </c>
+      <c r="R88" t="n">
+        <v>-32700</v>
+      </c>
+      <c r="S88" t="n">
+        <v>-105.88</v>
+      </c>
+      <c r="T88" t="n">
+        <v>-104.94</v>
+      </c>
+      <c r="U88" t="n">
+        <v>-165.9</v>
+      </c>
+      <c r="V88" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>EBIT-Wachstum 3J in %</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Growth 3Y in %</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="G89" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="H89" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="I89" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="J89" t="n">
+        <v>95.78</v>
+      </c>
+      <c r="K89" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="L89" t="n">
+        <v>68.15000000000001</v>
+      </c>
+      <c r="M89" t="n">
+        <v>48.03</v>
+      </c>
+      <c r="N89" t="n">
+        <v>56.91</v>
+      </c>
+      <c r="O89" t="n">
+        <v>178.18</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-10748.4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>-10799.92</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-10970.27</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-125.57</v>
+      </c>
+      <c r="T89" t="n">
+        <v>-75.15000000000001</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>EBIT-Wachstum 5J in %</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Growth 5Y in %</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="G90" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="H90" t="n">
+        <v>56.64</v>
+      </c>
+      <c r="I90" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="J90" t="n">
+        <v>70.34</v>
+      </c>
+      <c r="K90" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="L90" t="n">
+        <v>66.56999999999999</v>
+      </c>
+      <c r="M90" t="n">
+        <v>119.78</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-6424.63</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-6454.27</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-6491.2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>-6534.12</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-6606.26</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>EBIT-Wachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Growth 10Y in %</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="D91" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>36.97</v>
+      </c>
+      <c r="F91" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="G91" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="H91" t="n">
+        <v>88.20999999999999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-3182.51</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-3191.96</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-3208.8</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-3233.77</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-3243.24</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 1J in %</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 1Y in %</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E92" t="n">
+        <v>35.59</v>
+      </c>
+      <c r="F92" t="n">
+        <v>21</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-23.54</v>
+      </c>
+      <c r="H92" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-35.15</v>
+      </c>
+      <c r="J92" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-32.47</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-14.44</v>
+      </c>
+      <c r="M92" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-57.01</v>
+      </c>
+      <c r="O92" t="n">
+        <v>-17.53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="R92" t="n">
+        <v>-38.19</v>
+      </c>
+      <c r="S92" t="n">
+        <v>-55.24</v>
+      </c>
+      <c r="T92" t="n">
+        <v>99.22</v>
+      </c>
+      <c r="U92" t="n">
+        <v>195.98</v>
+      </c>
+      <c r="V92" t="n">
+        <v>-59.77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 3J in %</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 3Y in %</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="D93" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-5.47</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-5.38</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-6.41</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="O93" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="P93" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>-28.25</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S93" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="T93" t="n">
+        <v>78.48</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 5J in %</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 5Y in %</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D94" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-7.35</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-5.53</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-13.23</v>
+      </c>
+      <c r="L94" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="M94" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-7.21</v>
+      </c>
+      <c r="O94" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="P94" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="R94" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 10Y in %</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-5.24</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="L95" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="M95" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
           <t>Working Capital in Mio</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="B96" s="5" t="inlineStr">
         <is>
           <t>Working Capital in M</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C96" t="n">
         <v>57101</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D96" t="n">
         <v>14473</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E96" t="n">
         <v>27831</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F96" t="n">
         <v>27863</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G96" t="n">
         <v>8768</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H96" t="n">
         <v>5083</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I96" t="n">
         <v>29628</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J96" t="n">
         <v>19111</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K96" t="n">
         <v>17018</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L96" t="n">
         <v>20956</v>
       </c>
-      <c r="M83" t="n">
+      <c r="M96" t="n">
         <v>16983</v>
       </c>
-      <c r="N83" t="n">
+      <c r="N96" t="n">
         <v>20598</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O96" t="n">
         <v>12657</v>
       </c>
-      <c r="P83" t="n">
+      <c r="P96" t="n">
         <v>8038</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q96" t="n">
         <v>6816</v>
       </c>
-      <c r="R83" t="n">
+      <c r="R96" t="n">
         <v>4375</v>
       </c>
-      <c r="S83" t="n">
+      <c r="S96" t="n">
         <v>3530</v>
       </c>
-      <c r="T83" t="n">
+      <c r="T96" t="n">
         <v>3730</v>
       </c>
-      <c r="U83" t="n">
+      <c r="U96" t="n">
         <v>3625</v>
       </c>
-      <c r="V83" t="n">
+      <c r="V96" t="n">
         <v>3494</v>
       </c>
-      <c r="W83" t="inlineStr">
+      <c r="W96" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5960,7 +6996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -6071,17 +7107,17 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>TERMINE 2020</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>TERMINE / EVENTS 2020</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>AKTIONÄRE</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>AKTIONÄRE / SHAREHOLDERS</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -6125,7 +7161,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ergebnis 1.Quartal</t>
+          <t>Result Q1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -6182,7 +7218,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hauptversammlung</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -6239,7 +7275,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ex Dividende</t>
+          <t>Ex Dividend</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -6296,7 +7332,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dividendenauszahlung</t>
+          <t>Dividend Payout</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -6353,7 +7389,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ergebnis Halbjahr</t>
+          <t>Score Half Year</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -6410,7 +7446,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ergebnis 3.Quartal</t>
+          <t>Q3 Earnings</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -6445,7 +7481,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Halbleiterindustrie</t>
+          <t>Semiconductor Industry</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
@@ -6467,7 +7503,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ergebnis 4.Quartal</t>
+          <t>Q4 Result</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -6497,12 +7533,12 @@
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Aktientyp / Share Type</t>
+          <t>Sektor / Sector</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Inlandsaktie</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -6538,12 +7574,12 @@
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Sektor / Sector</t>
+          <t>Typ / Genre</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Technologie</t>
+          <t>Namens-Stammaktie</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -6571,12 +7607,12 @@
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Typ / Genre</t>
+          <t>Adresse / Address</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Namens-Stammaktie</t>
+          <t>Infineon Technologies AGAm Campeon 1-12  D-85579 Neubiberg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -6604,12 +7640,12 @@
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Adresse</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Infineon Technologies AGAm Campeon 1-12  D-85579 Neubiberg</t>
+          <t>Dr. Reinhard Ploss, Dr. Helmut Gassel, Jochen Hanebeck, Sven Schneider</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -6637,12 +7673,12 @@
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Aufsichtsrat / Board</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dr. Reinhard Ploss, Dr. Helmut Gassel, Jochen Hanebeck, Sven Schneider</t>
+          <t>Dr. Wolfgang Eder, Johann Dechant, Xiaoqun Clever, Dr. Friedrich Eichiner, Hans Ulrich Holdenried, Géraldine Picaud, Dr. Manfred Puffer, Dr. Ulrich Spiesshofer, Margret Suckale, Annette Engelfried, Peter Gruber, Dr. Susanne Lachenmann, Melanie Riedl, Jürgen Scholz, Kerstin Schulzendorf, Diana Vitale</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -6670,12 +7706,12 @@
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Aufsichtsrat</t>
+          <t>Beschreibung</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dr. Wolfgang Eder, Johann Dechant, Xiaoqun Clever, Dr. Friedrich Eichiner, Hans Ulrich Holdenried, Géraldine Picaud, Dr. Manfred Puffer, Dr. Ulrich Spiesshofer, Margret Suckale, Annette Engelfried, Peter Gruber, Dr. Susanne Lachenmann, Melanie Riedl, Jürgen Scholz, Kerstin Schulzendorf, Diana Vitale</t>
+          <t>Die Infineon Technologies AG ist ein führender Hersteller von Halbleitern, der sich bei der Entwicklung seiner Produkte besonders auf die Themen Energieeffizienz, Mobilität und Sicherheit konzentriert. Angeboten werden Halbleiter- und Systemlösungen für Automotive-, Industrieelektronik, Chipkarten- und Sicherheitsanwendungen. Infineon ist mit seinen Produkten in nahezu allen Bereichen des modernen Lebens, das in großen Teilen auf Elektronik basiert, vertreten. Zur Anwendung kommen Halbleiter unter anderem in der Elektronik von Fahrzeugen, in PCs, Mobiltelefonen, in Chips auf Ausweisen, Kredit- und EC-Karten, Beleuchtungsanlagen, allen Arten von Steuergeräten sowie in Haushalts- und Stromversorgungsgeräten. Im Januar 2015 bekam der Chiphersteller von den Wettbewerbshütern grünes Licht für den Kauf des US-Rivalen International Rectifier. Es ist die größte Übernahme in der Firmengeschichte von Infineon. Der Konzern hatte die rund 3 Mrd. US-Dollar (2,5 Mrd. Euro) schwere Übernahme im August 2014 angekündigt. Copyright 2014 FINANCE BASE AG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -6703,12 +7739,12 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Profil</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Die Infineon Technologies AG ist ein führender Hersteller von Halbleitern, der sich bei der Entwicklung seiner Produkte besonders auf die Themen Energieeffizienz, Mobilität und Sicherheit konzentriert. Angeboten werden Halbleiter- und Systemlösungen für Automotive-, Industrieelektronik, Chipkarten- und Sicherheitsanwendungen. Infineon ist mit seinen Produkten in nahezu allen Bereichen des modernen Lebens, das in großen Teilen auf Elektronik basiert, vertreten. Zur Anwendung kommen Halbleiter unter anderem in der Elektronik von Fahrzeugen, in PCs, Mobiltelefonen, in Chips auf Ausweisen, Kredit- und EC-Karten, Beleuchtungsanlagen, allen Arten von Steuergeräten sowie in Haushalts- und Stromversorgungsgeräten. Im Januar 2015 bekam der Chiphersteller von den Wettbewerbshütern grünes Licht für den Kauf des US-Rivalen International Rectifier. Es ist die größte Übernahme in der Firmengeschichte von Infineon. Der Konzern hatte die rund 3 Mrd. US-Dollar (2,5 Mrd. Euro) schwere Übernahme im August 2014 angekündigt. Copyright 2014 FINANCE BASE AG</t>
+          <t>Infineon Technologies AG is a leading manufacturer of semiconductors, which focuses on the development of its products particularly on energy efficiency, mobility and security. offered semiconductor and system solutions for automotive, industrial electronics, chip card and security applications. Infineon is represented with its products in nearly all areas of modern life, which is largely based on electronics. For use semiconductors are among others in the electronics of vehicles in personal computers, mobile phones, in chips on ID cards, credit and debit cards, lighting equipment, all kinds of control devices and in household and power supplies. In January 2015, the chipmaker got from the competition watchdogs go-ahead for the purchase of US rival International Rectifier. It is the largest acquisition in the history of Infineon. The group had announced the approximately 3 billion dollar takeover (EUR 2.5 billion) in August, 2014. Copyright 2014 FINANCE BASE AG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -11826,75 +12862,1140 @@
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
         <is>
+          <t>Gewinnwachstum 1J in %</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>Earnings Growth 1Y in %</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-19.07</v>
+      </c>
+      <c r="D84" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="F84" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="G84" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="H84" t="n">
+        <v>96.69</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-61.84</v>
+      </c>
+      <c r="K84" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-205.78</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-80.04000000000001</v>
+      </c>
+      <c r="N84" t="n">
+        <v>748.37</v>
+      </c>
+      <c r="O84" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="P84" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>-611.48</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-114.02</v>
+      </c>
+      <c r="S84" t="n">
+        <v>-57.39</v>
+      </c>
+      <c r="T84" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="U84" t="n">
+        <v>-152.45</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1758.09</v>
+      </c>
+      <c r="W84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum 3J in %</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>Earnings Growth 3Y in %</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D85" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E85" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="F85" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="G85" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-65.94</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-72.01000000000001</v>
+      </c>
+      <c r="L85" t="n">
+        <v>154.18</v>
+      </c>
+      <c r="M85" t="n">
+        <v>235.21</v>
+      </c>
+      <c r="N85" t="n">
+        <v>257.19</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-196.09</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-246.53</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>-260.96</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-32.84</v>
+      </c>
+      <c r="S85" t="n">
+        <v>-45.65</v>
+      </c>
+      <c r="T85" t="n">
+        <v>559.51</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum 5J in %</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>Earnings Growth 5Y in %</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D86" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="E86" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G86" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-27.49</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-62.83</v>
+      </c>
+      <c r="J86" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="K86" t="n">
+        <v>113.93</v>
+      </c>
+      <c r="L86" t="n">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="M86" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="N86" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-151.94</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-144.82</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>-172.49</v>
+      </c>
+      <c r="R86" t="n">
+        <v>301.42</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>Earnings Growth 10Y in %</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>-7.84</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-13.94</v>
+      </c>
+      <c r="E87" t="n">
+        <v>57.29</v>
+      </c>
+      <c r="F87" t="n">
+        <v>60.41</v>
+      </c>
+      <c r="G87" t="n">
+        <v>57.22</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-5.74</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-26.81</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-28.92</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-15.45</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-37.67</v>
+      </c>
+      <c r="M87" t="n">
+        <v>158.72</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>PEG Ratio</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>KGW Kurs/Gewinn/Wachstum</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>EBIT-Wachstum 1J in %</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Growth 1Y in %</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>-20.97</v>
+      </c>
+      <c r="D89" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="E89" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="F89" t="n">
+        <v>37.48</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="H89" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-28.57</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-38.18</v>
+      </c>
+      <c r="K89" t="n">
+        <v>111.49</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-258.18</v>
+      </c>
+      <c r="M89" t="n">
+        <v>340</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-86.48999999999999</v>
+      </c>
+      <c r="O89" t="n">
+        <v>560.71</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-79.09999999999999</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>-185.35</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-191.28</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-67.91</v>
+      </c>
+      <c r="T89" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="U89" t="n">
+        <v>-176.06</v>
+      </c>
+      <c r="V89" t="n">
+        <v>-2396.58</v>
+      </c>
+      <c r="W89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>EBIT-Wachstum 3J in %</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Growth 3Y in %</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="E90" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="F90" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="G90" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="I90" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-61.62</v>
+      </c>
+      <c r="K90" t="n">
+        <v>64.44</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="M90" t="n">
+        <v>271.41</v>
+      </c>
+      <c r="N90" t="n">
+        <v>131.71</v>
+      </c>
+      <c r="O90" t="n">
+        <v>98.75</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-151.91</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>-148.18</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-87.97</v>
+      </c>
+      <c r="S90" t="n">
+        <v>-82.89</v>
+      </c>
+      <c r="T90" t="n">
+        <v>-859.12</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>EBIT-Wachstum 5J in %</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Growth 5Y in %</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>21</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G91" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-30.38</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="J91" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="K91" t="n">
+        <v>133.51</v>
+      </c>
+      <c r="L91" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="M91" t="n">
+        <v>109.95</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O91" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-105.67</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>-125.06</v>
+      </c>
+      <c r="R91" t="n">
+        <v>-567.3099999999999</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>EBIT-Wachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>EBIT Growth 10Y in %</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>-5.14</v>
+      </c>
+      <c r="D92" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="E92" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="F92" t="n">
+        <v>70.55</v>
+      </c>
+      <c r="G92" t="n">
+        <v>58.89</v>
+      </c>
+      <c r="H92" t="n">
+        <v>39.79</v>
+      </c>
+      <c r="I92" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="J92" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="K92" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-14.84</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-228.68</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 1J in %</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 1Y in %</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G93" t="n">
+        <v>58.12</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-33.71</v>
+      </c>
+      <c r="I93" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="J93" t="n">
+        <v>72.16</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-16.81</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-115.57</v>
+      </c>
+      <c r="M93" t="n">
+        <v>58.35</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-414.91</v>
+      </c>
+      <c r="O93" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="P93" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>77.95</v>
+      </c>
+      <c r="R93" t="n">
+        <v>-70.06999999999999</v>
+      </c>
+      <c r="S93" t="n">
+        <v>-35.17</v>
+      </c>
+      <c r="T93" t="n">
+        <v>-61.45</v>
+      </c>
+      <c r="U93" t="n">
+        <v>168.02</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 3J in %</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 3Y in %</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E94" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G94" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="H94" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="I94" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-20.07</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-24.68</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-157.38</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-117.32</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-129.47</v>
+      </c>
+      <c r="O94" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="P94" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>-55.56</v>
+      </c>
+      <c r="S94" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 5J in %</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 5Y in %</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E95" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="F95" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="G95" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-6.95</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-83.36</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-96.87</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-89.13</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-50.42</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-76.11</v>
+      </c>
+      <c r="O95" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="P95" t="n">
+        <v>-13.37</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 10J in %</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>Op.Cashflow Wachstum 10Y in %</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-33.25</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-32.85</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-30.67</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-28.69</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-32.32</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-41.76</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-55.12</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-36.64</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
           <t>Working Capital in Mio</t>
         </is>
       </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>Working Capital in M</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C97" t="n">
         <v>5280</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D97" t="n">
         <v>3241</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E97" t="n">
         <v>2773</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F97" t="n">
         <v>2962</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G97" t="n">
         <v>2530</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H97" t="n">
         <v>2331</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I97" t="n">
         <v>2029</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J97" t="n">
         <v>1832</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K97" t="n">
         <v>1966</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L97" t="n">
         <v>1782</v>
       </c>
-      <c r="M84" t="n">
+      <c r="M97" t="n">
         <v>1086</v>
       </c>
-      <c r="N84" t="n">
+      <c r="N97" t="n">
         <v>1130</v>
       </c>
-      <c r="O84" t="n">
+      <c r="O97" t="n">
         <v>2431</v>
       </c>
-      <c r="P84" t="n">
+      <c r="P97" t="n">
         <v>2376</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q97" t="n">
         <v>2192</v>
       </c>
-      <c r="R84" t="n">
+      <c r="R97" t="n">
         <v>2422</v>
       </c>
-      <c r="S84" t="n">
+      <c r="S97" t="n">
         <v>3172</v>
       </c>
-      <c r="T84" t="n">
+      <c r="T97" t="n">
         <v>1808</v>
       </c>
-      <c r="U84" t="n">
+      <c r="U97" t="n">
         <v>672.6</v>
       </c>
-      <c r="V84" t="n">
+      <c r="V97" t="n">
         <v>1381</v>
       </c>
-      <c r="W84" t="n">
+      <c r="W97" t="n">
         <v>473.4</v>
       </c>
     </row>
